--- a/Include/All/mex_pip_cap_bcfd.xlsx
+++ b/Include/All/mex_pip_cap_bcfd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Daniel\Programs\Pycharm\MODL\Include\All\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive - Johns Hopkins University\Programs\Pycharm\MODL\Include\All\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56797B6B-22F0-490A-BFD3-7D26B764EEF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{56797B6B-22F0-490A-BFD3-7D26B764EEF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E355DDEF-844F-4599-B88A-5AE3CAB723B7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12936" windowHeight="8916" xr2:uid="{F47E916C-EC45-47E2-832D-1D54314809DB}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="region1">[1]Regions!$B$3:$C$61</definedName>
     <definedName name="Regions">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -107,9 +107,6 @@
     <t>Length (km)</t>
   </si>
   <si>
-    <t>Average Volume MMCF/day)</t>
-  </si>
-  <si>
     <t>Investment (Million $)</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t>ROW</t>
+  </si>
+  <si>
+    <t>Capacity</t>
   </si>
 </sst>
 </file>
@@ -1606,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A48230-88EB-4A57-8F1C-65FE1A20466A}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1798,13 +1798,13 @@
         <v>21</v>
       </c>
       <c r="J7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="L7" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1812,23 +1812,23 @@
         <v>1</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19">
         <v>1997</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" s="21">
         <v>3.7899999999999996E-2</v>
@@ -1840,7 +1840,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1848,23 +1848,23 @@
         <v>2</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="25">
         <v>1998</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="21">
         <v>3.0000000000000001E-3</v>
@@ -1876,7 +1876,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1884,23 +1884,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="19">
         <v>1999</v>
       </c>
       <c r="G10" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="I10" s="21">
         <v>7.9000000000000008E-3</v>
@@ -1912,7 +1912,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1920,25 +1920,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="F11" s="19">
         <v>1999</v>
       </c>
       <c r="G11" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>74</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>75</v>
       </c>
       <c r="I11" s="21">
         <v>0.33900000000000002</v>
@@ -1950,7 +1950,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1958,25 +1958,25 @@
         <v>5</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="E12" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>38</v>
       </c>
       <c r="F12" s="29">
         <v>1999</v>
       </c>
       <c r="G12" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="31" t="s">
         <v>76</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>77</v>
       </c>
       <c r="I12" s="32">
         <v>8.7040000000000006</v>
@@ -1988,7 +1988,7 @@
         <v>0.4365</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1996,25 +1996,25 @@
         <v>5</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="29">
         <v>1999</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" s="32">
         <v>8.7040000000000006</v>
@@ -2026,7 +2026,7 @@
         <v>0.4365</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2034,23 +2034,23 @@
         <v>6</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="19">
         <v>1999</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I14" s="21">
         <v>0.78689999999999993</v>
@@ -2062,7 +2062,7 @@
         <v>0.27689999999999998</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2070,23 +2070,23 @@
         <v>7</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="19">
         <v>2000</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="21">
         <v>4.8000000000000001E-2</v>
@@ -2098,7 +2098,7 @@
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2106,23 +2106,23 @@
         <v>8</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="19">
         <v>2001</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" s="21">
         <v>0.20419999999999999</v>
@@ -2134,7 +2134,7 @@
         <v>5.6500000000000002E-2</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2142,23 +2142,23 @@
         <v>9</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="19">
         <v>2002</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I17" s="21">
         <v>0.3024</v>
@@ -2170,7 +2170,7 @@
         <v>0.12459999999999999</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2178,23 +2178,23 @@
         <v>10</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="19">
         <v>2002</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I18" s="21">
         <v>1.2500000000000001E-2</v>
@@ -2206,7 +2206,7 @@
         <v>6.6E-3</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2214,23 +2214,23 @@
         <v>11</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="19">
         <v>2003</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="21">
         <v>0.17530000000000001</v>
@@ -2242,7 +2242,7 @@
         <v>3.1E-2</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2250,23 +2250,23 @@
         <v>12</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="29">
         <v>2003</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I20" s="32">
         <v>0.1386</v>
@@ -2278,7 +2278,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="L20" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2286,23 +2286,23 @@
         <v>13</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="19">
         <v>2003</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="21">
         <v>5.79E-2</v>
@@ -2314,7 +2314,7 @@
         <v>3.9299999999999995E-2</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2322,23 +2322,23 @@
         <v>14</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="19">
         <v>2003</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I22" s="21">
         <v>0.1142</v>
@@ -2350,7 +2350,7 @@
         <v>0.2387</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2358,23 +2358,23 @@
         <v>15</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="19">
         <v>2003</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="21">
         <v>1.6000000000000001E-3</v>
@@ -2386,7 +2386,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2394,25 +2394,25 @@
         <v>16</v>
       </c>
       <c r="B24" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="34" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>50</v>
       </c>
       <c r="F24" s="29">
         <v>2014</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="32">
         <v>0.35630000000000001</v>
@@ -2424,7 +2424,7 @@
         <v>0.16789999999999999</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2432,23 +2432,23 @@
         <v>17</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="19">
         <v>2011</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I25" s="21">
         <v>0.3105</v>
@@ -2460,7 +2460,7 @@
         <v>0.41299999999999998</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2468,23 +2468,23 @@
         <v>18</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="19">
         <v>2008</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I26" s="21">
         <v>0.38389999999999996</v>
@@ -2496,7 +2496,7 @@
         <v>0.36880000000000002</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2504,23 +2504,23 @@
         <v>19</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="19">
         <v>2014</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I27" s="21">
         <v>0.1164</v>
@@ -2532,7 +2532,7 @@
         <v>0.48680000000000001</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2540,23 +2540,23 @@
         <v>20</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="19">
         <v>2014</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I28" s="21">
         <v>0.84260000000000002</v>
@@ -2568,7 +2568,7 @@
         <v>0.92289999999999994</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2576,23 +2576,23 @@
         <v>21</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="19">
         <v>2014</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I29" s="21">
         <v>0.1749</v>
@@ -2604,7 +2604,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2612,23 +2612,23 @@
         <v>22</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="19">
         <v>2020</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I30" s="21">
         <v>0.17219999999999999</v>
@@ -2640,7 +2640,7 @@
         <v>0.2288</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2648,23 +2648,23 @@
         <v>23</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="36"/>
       <c r="F31" s="19">
         <v>2020</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I31" s="21">
         <v>0.4516</v>
@@ -2676,7 +2676,7 @@
         <v>1.0654999999999999</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2684,23 +2684,23 @@
         <v>24</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="34"/>
       <c r="F32" s="29">
         <v>2020</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I32" s="32">
         <v>0.9506</v>
@@ -2712,7 +2712,7 @@
         <v>0.89670000000000005</v>
       </c>
       <c r="L32" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2720,23 +2720,23 @@
         <v>25</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" s="36"/>
       <c r="F33" s="19">
         <v>2020</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I33" s="21">
         <v>0.29149999999999998</v>
@@ -2748,7 +2748,7 @@
         <v>0.72799999999999998</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2756,25 +2756,25 @@
         <v>26</v>
       </c>
       <c r="B34" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="36" t="s">
         <v>61</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>62</v>
       </c>
       <c r="F34" s="19">
         <v>2015</v>
       </c>
       <c r="G34" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="I34" s="21">
         <v>2.8999999999999998E-3</v>
@@ -2786,7 +2786,7 @@
         <v>0.13</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2794,23 +2794,23 @@
         <v>27</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="34" t="s">
         <v>30</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>31</v>
       </c>
       <c r="E35" s="34"/>
       <c r="F35" s="29">
         <v>2020</v>
       </c>
       <c r="G35" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="31" t="s">
         <v>72</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>73</v>
       </c>
       <c r="I35" s="32">
         <v>1.4800000000000001E-2</v>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2830,23 +2830,23 @@
         <v>28</v>
       </c>
       <c r="B36" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="35" t="s">
-        <v>66</v>
-      </c>
       <c r="D36" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="34"/>
       <c r="F36" s="29">
         <v>1983</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I36" s="32">
         <v>1.9E-2</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2866,23 +2866,23 @@
         <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="36" t="s">
         <v>30</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="E37" s="36"/>
       <c r="F37" s="19">
         <v>2020</v>
       </c>
       <c r="G37" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="I37" s="21">
         <v>0.70099999999999996</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2902,23 +2902,23 @@
         <v>30</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="36" t="s">
         <v>30</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="19">
         <v>2009</v>
       </c>
       <c r="G38" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="I38" s="21">
         <v>2.93E-2</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2938,23 +2938,23 @@
         <v>31</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="41" t="s">
         <v>30</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>31</v>
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="42">
         <v>2020</v>
       </c>
       <c r="G39" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="43" t="s">
         <v>72</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>73</v>
       </c>
       <c r="I39" s="32">
         <v>5.0999999999999995E-3</v>
@@ -2966,12 +2966,12 @@
         <v>0</v>
       </c>
       <c r="L39" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="45"/>
       <c r="C40" s="46"/>
